--- a/Data/NCES Data/Selected Economic Characteristics of Relevant Children Enrolled (Public and Private) (2014-2018)/ACS-ED_2014-2018_RecordLayouts.xlsx
+++ b/Data/NCES Data/Selected Economic Characteristics of Relevant Children Enrolled (Public and Private) (2014-2018)/ACS-ED_2014-2018_RecordLayouts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\EDGE\WEBSITE\TableViewer_Download\RecordLayouts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/stickels_uw_edu/Documents/Schoolwork/INFO 201/Educational_Justice_Visualization_Project/Data/NCES Data/Selected Economic Characteristics of Relevant Children Enrolled (Public and Private) (2014-2018)/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_331B007107B235EC4E4A400A36E854B183AC422C" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP02" sheetId="1" r:id="rId1"/>
@@ -22119,7 +22120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -22461,10 +22462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C548"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28492,7 +28495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -32345,7 +32348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -36198,7 +36201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38489,7 +38492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -43992,7 +43995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -46877,7 +46880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C548"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -52908,7 +52911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C444"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -57795,7 +57798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C514"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -63452,7 +63455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -67173,7 +67176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -71928,7 +71931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C432"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -76683,7 +76686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -79568,7 +79571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
